--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3895.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3895.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.972918537993607</v>
+        <v>1.72356903553009</v>
       </c>
       <c r="B1">
-        <v>2.063558855442467</v>
+        <v>2.265031576156616</v>
       </c>
       <c r="C1">
-        <v>2.341391866787379</v>
+        <v>4.6170654296875</v>
       </c>
       <c r="D1">
-        <v>3.663176493029774</v>
+        <v>4.165021419525146</v>
       </c>
       <c r="E1">
-        <v>3.120790617833801</v>
+        <v>1.59408438205719</v>
       </c>
     </row>
   </sheetData>
